--- a/Semestre 1/Matemáticas Financieras/Talleres para Entregar.xlsx
+++ b/Semestre 1/Matemáticas Financieras/Talleres para Entregar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGOJ\OneDrive\Desktop\NICO\MAF\Semestre 1\Matemáticas Financieras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0B00CA-63D2-4C2E-A9D6-72A4EB9BFC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078EA643-B28C-40B9-82A9-1C6C896763BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taller 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -447,9 +447,6 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -469,12 +466,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -758,7 +758,7 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
@@ -2858,7 +2858,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
@@ -2912,7 +2912,7 @@
         <v>78</v>
       </c>
       <c r="AD1"/>
-      <c r="AE1" s="17"/>
+      <c r="AE1" s="16"/>
       <c r="AF1"/>
       <c r="AG1"/>
       <c r="AH1"/>
@@ -2931,13 +2931,13 @@
       <c r="AQ1" t="s">
         <v>11</v>
       </c>
-      <c r="AR1" s="21">
+      <c r="AR1" s="20">
         <v>500000</v>
       </c>
       <c r="AS1" t="s">
         <v>77</v>
       </c>
-      <c r="AT1" s="22">
+      <c r="AT1" s="21">
         <f>PMT(AQ4,18,-(AW22-AX28))</f>
         <v>448955.37458783225</v>
       </c>
@@ -2947,7 +2947,7 @@
       <c r="AX1"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AE2" s="17"/>
+      <c r="AE2" s="16"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3013,17 +3013,17 @@
       <c r="AC3">
         <v>1</v>
       </c>
-      <c r="AD3" s="17">
+      <c r="AD3" s="16">
         <v>500000</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AE3" s="17">
         <f>+PV(1.5%,AC3,,-AD3)</f>
         <v>492610.83743842371</v>
       </c>
       <c r="AJ3">
         <v>1</v>
       </c>
-      <c r="AK3" s="17">
+      <c r="AK3" s="16">
         <v>500000</v>
       </c>
       <c r="AQ3" t="s">
@@ -3049,7 +3049,7 @@
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="E4" s="17"/>
+      <c r="E4" s="16"/>
       <c r="H4" s="11">
         <v>250000000</v>
       </c>
@@ -3089,17 +3089,17 @@
       <c r="AC4">
         <v>2</v>
       </c>
-      <c r="AD4" s="17">
+      <c r="AD4" s="16">
         <v>500000</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AE4" s="17">
         <f t="shared" ref="AE4:AE38" si="1">+PV(1.5%,AC4,,-AD4)</f>
         <v>485330.87432357023</v>
       </c>
       <c r="AJ4">
         <v>2</v>
       </c>
-      <c r="AK4" s="17">
+      <c r="AK4" s="16">
         <v>500000</v>
       </c>
       <c r="AQ4" s="9">
@@ -3125,32 +3125,32 @@
         <f>+H4*B5</f>
         <v>2500000</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f t="shared" ref="E5:E64" si="2">+F5-D5</f>
         <v>2566316.6588206599</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>5066316.6588206599</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20">
-        <f t="shared" ref="H5:H64" si="3">+H4-E5</f>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19">
+        <f t="shared" ref="H5:H39" si="3">+H4-E5</f>
         <v>247433683.34117934</v>
       </c>
       <c r="AC5">
         <v>3</v>
       </c>
-      <c r="AD5" s="17">
+      <c r="AD5" s="16">
         <v>500000</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AE5" s="17">
         <f t="shared" si="1"/>
         <v>478158.49687051261</v>
       </c>
       <c r="AJ5">
         <v>3</v>
       </c>
-      <c r="AK5" s="17">
+      <c r="AK5" s="16">
         <v>500000</v>
       </c>
       <c r="AQ5" s="9">
@@ -3159,15 +3159,15 @@
       <c r="AR5">
         <v>1</v>
       </c>
-      <c r="AS5" s="23">
+      <c r="AS5" s="22">
         <f>AW4*AQ5</f>
         <v>230494.10245238329</v>
       </c>
-      <c r="AT5" s="23">
+      <c r="AT5" s="22">
         <f>AU5-AS5</f>
         <v>269505.89754761674</v>
       </c>
-      <c r="AU5" s="21">
+      <c r="AU5" s="20">
         <f>+$AR$1</f>
         <v>500000</v>
       </c>
@@ -3187,33 +3187,33 @@
         <f t="shared" ref="D6:D64" si="4">+H5*B6</f>
         <v>2474336.8334117937</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2616979.8254088634</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <f t="shared" ref="F6:F64" ca="1" si="5">+$F$14</f>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20">
+      <c r="G6" s="17"/>
+      <c r="H6" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>242316703.51577047</v>
       </c>
       <c r="AC6">
         <v>4</v>
       </c>
-      <c r="AD6" s="17">
+      <c r="AD6" s="16">
         <v>500000</v>
       </c>
-      <c r="AE6" s="18">
+      <c r="AE6" s="17">
         <f t="shared" si="1"/>
         <v>471092.11514336226</v>
       </c>
       <c r="AJ6">
         <v>4</v>
       </c>
-      <c r="AK6" s="17">
+      <c r="AK6" s="16">
         <v>500000</v>
       </c>
       <c r="AQ6" s="9">
@@ -3222,15 +3222,15 @@
       <c r="AR6">
         <v>2</v>
       </c>
-      <c r="AS6" s="23">
+      <c r="AS6" s="22">
         <f>AW5*AQ6</f>
         <v>226451.51398916903</v>
       </c>
-      <c r="AT6" s="23">
+      <c r="AT6" s="22">
         <f t="shared" ref="AT6:AT40" si="6">AU6-AS6</f>
         <v>273548.48601083097</v>
       </c>
-      <c r="AU6" s="21">
+      <c r="AU6" s="20">
         <f t="shared" ref="AU6:AU22" si="7">+$AR$1</f>
         <v>500000</v>
       </c>
@@ -3250,20 +3250,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2423167.0351577047</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2643149.6236629523</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20">
+      <c r="G7" s="17"/>
+      <c r="H7" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>239673553.89210752</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="25" t="s">
         <v>91</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -3278,10 +3278,10 @@
       <c r="P7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="T7" s="25" t="s">
         <v>91</v>
       </c>
       <c r="U7" s="8" t="s">
@@ -3296,23 +3296,23 @@
       <c r="X7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="Y7" s="27" t="s">
+      <c r="Y7" s="26" t="s">
         <v>96</v>
       </c>
       <c r="AC7">
         <v>5</v>
       </c>
-      <c r="AD7" s="17">
+      <c r="AD7" s="16">
         <v>500000</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AE7" s="17">
         <f t="shared" si="1"/>
         <v>464130.16270281997</v>
       </c>
       <c r="AJ7">
         <v>5</v>
       </c>
-      <c r="AK7" s="17">
+      <c r="AK7" s="16">
         <v>500000</v>
       </c>
       <c r="AQ7" s="9">
@@ -3321,15 +3321,15 @@
       <c r="AR7">
         <v>3</v>
       </c>
-      <c r="AS7" s="23">
+      <c r="AS7" s="22">
         <f t="shared" ref="AS7:AS40" si="9">AW6*AQ7</f>
         <v>222348.28669900657</v>
       </c>
-      <c r="AT7" s="23">
+      <c r="AT7" s="22">
         <f t="shared" si="6"/>
         <v>277651.71330099343</v>
       </c>
-      <c r="AU7" s="21">
+      <c r="AU7" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -3349,20 +3349,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2396735.5389210754</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2669581.1198995817</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="20">
+      <c r="G8" s="17"/>
+      <c r="H8" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>237003972.77220795</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="27">
         <v>43861</v>
       </c>
       <c r="M8" s="11"/>
@@ -3372,7 +3372,7 @@
       <c r="Q8" s="2">
         <v>1300000</v>
       </c>
-      <c r="T8" s="28">
+      <c r="T8" s="27">
         <v>43861</v>
       </c>
       <c r="U8" s="11"/>
@@ -3385,17 +3385,17 @@
       <c r="AC8">
         <v>6</v>
       </c>
-      <c r="AD8" s="17">
+      <c r="AD8" s="16">
         <v>500000</v>
       </c>
-      <c r="AE8" s="18">
+      <c r="AE8" s="17">
         <f t="shared" si="1"/>
         <v>457271.09625893604</v>
       </c>
       <c r="AJ8">
         <v>6</v>
       </c>
-      <c r="AK8" s="17">
+      <c r="AK8" s="16">
         <v>500000</v>
       </c>
       <c r="AQ8" s="9">
@@ -3404,15 +3404,15 @@
       <c r="AR8">
         <v>4</v>
       </c>
-      <c r="AS8" s="23">
+      <c r="AS8" s="22">
         <f t="shared" si="9"/>
         <v>218183.51099949167</v>
       </c>
-      <c r="AT8" s="23">
+      <c r="AT8" s="22">
         <f t="shared" si="6"/>
         <v>281816.48900050833</v>
       </c>
-      <c r="AU8" s="21">
+      <c r="AU8" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -3432,20 +3432,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2370039.7277220795</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2696276.9310985776</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20">
+      <c r="G9" s="17"/>
+      <c r="H9" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>234307695.84110937</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="27">
         <v>43890</v>
       </c>
       <c r="M9" s="11">
@@ -3467,7 +3467,7 @@
         <v>1318585.3201586073</v>
       </c>
       <c r="R9" s="5"/>
-      <c r="T9" s="28">
+      <c r="T9" s="27">
         <v>43890</v>
       </c>
       <c r="U9" s="11">
@@ -3491,17 +3491,17 @@
       <c r="AC9">
         <v>7</v>
       </c>
-      <c r="AD9" s="17">
+      <c r="AD9" s="16">
         <v>500000</v>
       </c>
-      <c r="AE9" s="18">
+      <c r="AE9" s="17">
         <f t="shared" si="1"/>
         <v>450513.39532900107</v>
       </c>
       <c r="AJ9">
         <v>7</v>
       </c>
-      <c r="AK9" s="17">
+      <c r="AK9" s="16">
         <v>500000</v>
       </c>
       <c r="AQ9" s="9">
@@ -3510,15 +3510,15 @@
       <c r="AR9">
         <v>5</v>
       </c>
-      <c r="AS9" s="23">
+      <c r="AS9" s="22">
         <f t="shared" si="9"/>
         <v>213956.26366448402</v>
       </c>
-      <c r="AT9" s="23">
+      <c r="AT9" s="22">
         <f t="shared" si="6"/>
         <v>286043.73633551598</v>
       </c>
-      <c r="AU9" s="21">
+      <c r="AU9" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -3538,20 +3538,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2343076.9584110938</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2723239.7004095633</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20">
+      <c r="G10" s="17"/>
+      <c r="H10" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>231584456.1406998</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="27">
         <v>43921</v>
       </c>
       <c r="M10" s="11">
@@ -3572,7 +3572,7 @@
         <f t="shared" ref="Q10:Q32" si="12">Q9+P10+N10-O10</f>
         <v>1338746.3043637208</v>
       </c>
-      <c r="T10" s="28">
+      <c r="T10" s="27">
         <v>43921</v>
       </c>
       <c r="U10" s="11">
@@ -3596,17 +3596,17 @@
       <c r="AC10">
         <v>8</v>
       </c>
-      <c r="AD10" s="17">
+      <c r="AD10" s="16">
         <v>500000</v>
       </c>
-      <c r="AE10" s="18">
+      <c r="AE10" s="17">
         <f t="shared" si="1"/>
         <v>443855.56190049375</v>
       </c>
       <c r="AJ10">
         <v>8</v>
       </c>
-      <c r="AK10" s="17">
+      <c r="AK10" s="16">
         <v>500000</v>
       </c>
       <c r="AQ10" s="9">
@@ -3615,15 +3615,15 @@
       <c r="AR10">
         <v>6</v>
       </c>
-      <c r="AS10" s="23">
+      <c r="AS10" s="22">
         <f t="shared" si="9"/>
         <v>209665.6076194513</v>
       </c>
-      <c r="AT10" s="23">
+      <c r="AT10" s="22">
         <f t="shared" si="6"/>
         <v>290334.3923805487</v>
       </c>
-      <c r="AU10" s="21">
+      <c r="AU10" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -3643,20 +3643,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2315844.561406998</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2750472.0974136591</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20">
+      <c r="G11" s="17"/>
+      <c r="H11" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>228833984.04328614</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="27">
         <v>43951</v>
       </c>
       <c r="M11" s="11">
@@ -3677,7 +3677,7 @@
         <f t="shared" si="12"/>
         <v>1358550.3894343921</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="27">
         <v>43951</v>
       </c>
       <c r="U11" s="11">
@@ -3701,17 +3701,17 @@
       <c r="AC11">
         <v>9</v>
       </c>
-      <c r="AD11" s="17">
+      <c r="AD11" s="16">
         <v>500000</v>
       </c>
-      <c r="AE11" s="18">
+      <c r="AE11" s="17">
         <f t="shared" si="1"/>
         <v>437296.12009900867</v>
       </c>
       <c r="AJ11">
         <v>9</v>
       </c>
-      <c r="AK11" s="17">
+      <c r="AK11" s="16">
         <v>500000</v>
       </c>
       <c r="AQ11" s="9">
@@ -3720,15 +3720,15 @@
       <c r="AR11">
         <v>7</v>
       </c>
-      <c r="AS11" s="23">
+      <c r="AS11" s="22">
         <f t="shared" si="9"/>
         <v>205310.59173374306</v>
       </c>
-      <c r="AT11" s="23">
+      <c r="AT11" s="22">
         <f t="shared" si="6"/>
         <v>294689.40826625691</v>
       </c>
-      <c r="AU11" s="21">
+      <c r="AU11" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -3748,20 +3748,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2288339.8404328614</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2777976.8183877957</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="20">
+      <c r="G12" s="17"/>
+      <c r="H12" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>226056007.22489834</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="27">
         <v>43952</v>
       </c>
       <c r="M12" s="11">
@@ -3782,7 +3782,7 @@
         <f t="shared" si="12"/>
         <v>1859215.547183506</v>
       </c>
-      <c r="T12" s="28">
+      <c r="T12" s="27">
         <v>43952</v>
       </c>
       <c r="U12" s="11">
@@ -3806,17 +3806,17 @@
       <c r="AC12">
         <v>10</v>
       </c>
-      <c r="AD12" s="17">
+      <c r="AD12" s="16">
         <v>500000</v>
       </c>
-      <c r="AE12" s="18">
+      <c r="AE12" s="17">
         <f t="shared" si="1"/>
         <v>430833.61586109229</v>
       </c>
       <c r="AJ12">
         <v>10</v>
       </c>
-      <c r="AK12" s="17">
+      <c r="AK12" s="16">
         <v>500000</v>
       </c>
       <c r="AQ12" s="9">
@@ -3825,15 +3825,15 @@
       <c r="AR12">
         <v>8</v>
       </c>
-      <c r="AS12" s="23">
+      <c r="AS12" s="22">
         <f t="shared" si="9"/>
         <v>200890.2506097492</v>
       </c>
-      <c r="AT12" s="23">
+      <c r="AT12" s="22">
         <f t="shared" si="6"/>
         <v>299109.74939025077</v>
       </c>
-      <c r="AU12" s="21">
+      <c r="AU12" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -3853,20 +3853,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2260560.0722489837</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2805756.5865716734</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="20">
+      <c r="G13" s="17"/>
+      <c r="H13" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>223250250.63832667</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="27">
         <v>43982</v>
       </c>
       <c r="M13" s="11">
@@ -3887,7 +3887,7 @@
         <f t="shared" si="12"/>
         <v>1886718.9380359175</v>
       </c>
-      <c r="T13" s="28">
+      <c r="T13" s="27">
         <v>43982</v>
       </c>
       <c r="U13" s="11">
@@ -3911,17 +3911,17 @@
       <c r="AC13">
         <v>11</v>
       </c>
-      <c r="AD13" s="17">
+      <c r="AD13" s="16">
         <v>500000</v>
       </c>
-      <c r="AE13" s="18">
+      <c r="AE13" s="17">
         <f t="shared" si="1"/>
         <v>424466.61661191366</v>
       </c>
       <c r="AJ13">
         <v>11</v>
       </c>
-      <c r="AK13" s="17">
+      <c r="AK13" s="16">
         <v>500000</v>
       </c>
       <c r="AQ13" s="9">
@@ -3930,15 +3930,15 @@
       <c r="AR13">
         <v>9</v>
       </c>
-      <c r="AS13" s="23">
+      <c r="AS13" s="22">
         <f t="shared" si="9"/>
         <v>196403.60436889547</v>
       </c>
-      <c r="AT13" s="23">
+      <c r="AT13" s="22">
         <f t="shared" si="6"/>
         <v>303596.39563110453</v>
       </c>
-      <c r="AU13" s="21">
+      <c r="AU13" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -3958,20 +3958,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2232502.5063832668</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2833814.1524373903</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="20">
+      <c r="G14" s="17"/>
+      <c r="H14" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>220416436.48588929</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="27">
         <v>44012</v>
       </c>
       <c r="M14" s="11">
@@ -3992,7 +3992,7 @@
         <f t="shared" si="12"/>
         <v>1914629.1867749933</v>
       </c>
-      <c r="T14" s="28">
+      <c r="T14" s="27">
         <v>44012</v>
       </c>
       <c r="U14" s="11">
@@ -4016,17 +4016,17 @@
       <c r="AC14">
         <v>12</v>
       </c>
-      <c r="AD14" s="17">
+      <c r="AD14" s="16">
         <v>1500000</v>
       </c>
-      <c r="AE14" s="18">
+      <c r="AE14" s="17">
         <f t="shared" si="1"/>
         <v>1254581.1328430949</v>
       </c>
       <c r="AJ14">
         <v>12</v>
       </c>
-      <c r="AK14" s="17">
+      <c r="AK14" s="16">
         <v>1500000</v>
       </c>
       <c r="AQ14" s="9">
@@ -4035,15 +4035,15 @@
       <c r="AR14">
         <v>10</v>
       </c>
-      <c r="AS14" s="23">
+      <c r="AS14" s="22">
         <f t="shared" si="9"/>
         <v>191849.65843442889</v>
       </c>
-      <c r="AT14" s="23">
+      <c r="AT14" s="22">
         <f t="shared" si="6"/>
         <v>308150.34156557114</v>
       </c>
-      <c r="AU14" s="21">
+      <c r="AU14" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -4063,20 +4063,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2204164.3648588927</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2862152.2939617643</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="20">
+      <c r="G15" s="17"/>
+      <c r="H15" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>217554284.19192752</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="27">
         <v>44043</v>
       </c>
       <c r="M15" s="11">
@@ -4097,7 +4097,7 @@
         <f t="shared" si="12"/>
         <v>1943903.5979208543</v>
       </c>
-      <c r="T15" s="28">
+      <c r="T15" s="27">
         <v>44043</v>
       </c>
       <c r="U15" s="11">
@@ -4121,17 +4121,17 @@
       <c r="AC15">
         <v>13</v>
       </c>
-      <c r="AD15" s="17">
+      <c r="AD15" s="16">
         <v>500000</v>
       </c>
-      <c r="AE15" s="18">
+      <c r="AE15" s="17">
         <f t="shared" si="1"/>
         <v>412013.50832285546</v>
       </c>
       <c r="AJ15">
         <v>13</v>
       </c>
-      <c r="AK15" s="17">
+      <c r="AK15" s="16">
         <v>500000</v>
       </c>
       <c r="AQ15" s="9">
@@ -4140,15 +4140,15 @@
       <c r="AR15">
         <v>11</v>
       </c>
-      <c r="AS15" s="23">
+      <c r="AS15" s="22">
         <f t="shared" si="9"/>
         <v>187227.40331094532</v>
       </c>
-      <c r="AT15" s="23">
+      <c r="AT15" s="22">
         <f t="shared" si="6"/>
         <v>312772.59668905468</v>
       </c>
-      <c r="AU15" s="21">
+      <c r="AU15" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -4168,20 +4168,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2175542.8419192755</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2890773.8169013816</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="20">
+      <c r="G16" s="17"/>
+      <c r="H16" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>214663510.37502614</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="27">
         <v>44074</v>
       </c>
       <c r="M16" s="11">
@@ -4202,7 +4202,7 @@
         <f t="shared" si="12"/>
         <v>1973625.6106983295</v>
       </c>
-      <c r="T16" s="28">
+      <c r="T16" s="27">
         <v>44074</v>
       </c>
       <c r="U16" s="11">
@@ -4226,17 +4226,17 @@
       <c r="AC16">
         <v>14</v>
       </c>
-      <c r="AD16" s="17">
+      <c r="AD16" s="16">
         <v>500000</v>
       </c>
-      <c r="AE16" s="18">
+      <c r="AE16" s="17">
         <f t="shared" si="1"/>
         <v>405924.63874172961</v>
       </c>
       <c r="AJ16">
         <v>14</v>
       </c>
-      <c r="AK16" s="17">
+      <c r="AK16" s="16">
         <v>500000</v>
       </c>
       <c r="AQ16" s="9">
@@ -4245,19 +4245,19 @@
       <c r="AR16">
         <v>12</v>
       </c>
-      <c r="AS16" s="23">
+      <c r="AS16" s="22">
         <f t="shared" si="9"/>
         <v>182535.81436060948</v>
       </c>
-      <c r="AT16" s="23">
+      <c r="AT16" s="22">
         <f t="shared" si="6"/>
         <v>317464.18563939049</v>
       </c>
-      <c r="AU16" s="21">
+      <c r="AU16" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
-      <c r="AV16" s="21">
+      <c r="AV16" s="20">
         <v>1000000</v>
       </c>
       <c r="AW16" s="6">
@@ -4276,20 +4276,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2146635.1037502615</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2919681.5550703956</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="20">
+      <c r="G17" s="17"/>
+      <c r="H17" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>211743828.81995574</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="27">
         <v>44104</v>
       </c>
       <c r="M17" s="11">
@@ -4310,7 +4310,7 @@
         <f t="shared" si="12"/>
         <v>2002821.4705595465</v>
       </c>
-      <c r="T17" s="28">
+      <c r="T17" s="27">
         <v>44104</v>
       </c>
       <c r="U17" s="11">
@@ -4334,17 +4334,17 @@
       <c r="AC17">
         <v>15</v>
       </c>
-      <c r="AD17" s="17">
+      <c r="AD17" s="16">
         <v>500000</v>
       </c>
-      <c r="AE17" s="18">
+      <c r="AE17" s="17">
         <f t="shared" si="1"/>
         <v>399925.75245490612</v>
       </c>
       <c r="AJ17">
         <v>15</v>
       </c>
-      <c r="AK17" s="17">
+      <c r="AK17" s="16">
         <v>500000</v>
       </c>
       <c r="AQ17" s="9">
@@ -4353,15 +4353,15 @@
       <c r="AR17">
         <v>13</v>
       </c>
-      <c r="AS17" s="23">
+      <c r="AS17" s="22">
         <f t="shared" si="9"/>
         <v>162773.85157601861</v>
       </c>
-      <c r="AT17" s="23">
+      <c r="AT17" s="22">
         <f t="shared" si="6"/>
         <v>337226.14842398139</v>
       </c>
-      <c r="AU17" s="21">
+      <c r="AU17" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -4381,20 +4381,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2117438.2881995575</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2948878.3706210996</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="20">
+      <c r="G18" s="17"/>
+      <c r="H18" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>208794950.44933465</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="27">
         <v>44135</v>
       </c>
       <c r="M18" s="11">
@@ -4415,7 +4415,7 @@
         <f t="shared" si="12"/>
         <v>2033444.3293281819</v>
       </c>
-      <c r="T18" s="28">
+      <c r="T18" s="27">
         <v>44135</v>
       </c>
       <c r="U18" s="11">
@@ -4439,17 +4439,17 @@
       <c r="AC18">
         <v>16</v>
       </c>
-      <c r="AD18" s="17">
+      <c r="AD18" s="16">
         <v>500000</v>
       </c>
-      <c r="AE18" s="18">
+      <c r="AE18" s="17">
         <f t="shared" si="1"/>
         <v>394015.51966000604</v>
       </c>
       <c r="AJ18">
         <v>16</v>
       </c>
-      <c r="AK18" s="17">
+      <c r="AK18" s="16">
         <v>500000</v>
       </c>
       <c r="AQ18" s="9">
@@ -4458,15 +4458,15 @@
       <c r="AR18">
         <v>14</v>
       </c>
-      <c r="AS18" s="23">
+      <c r="AS18" s="22">
         <f t="shared" si="9"/>
         <v>157715.45934965892</v>
       </c>
-      <c r="AT18" s="23">
+      <c r="AT18" s="22">
         <f t="shared" si="6"/>
         <v>342284.54065034108</v>
       </c>
-      <c r="AU18" s="21">
+      <c r="AU18" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -4486,20 +4486,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2087949.5044933467</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>2978367.1543273106</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="20">
+      <c r="G19" s="17"/>
+      <c r="H19" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>205816583.29500735</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="27">
         <v>44136</v>
       </c>
       <c r="M19" s="11">
@@ -4520,7 +4520,7 @@
         <f t="shared" si="12"/>
         <v>2534439.9208524739</v>
       </c>
-      <c r="T19" s="28">
+      <c r="T19" s="27">
         <v>44136</v>
       </c>
       <c r="U19" s="11">
@@ -4544,17 +4544,17 @@
       <c r="AC19">
         <v>17</v>
       </c>
-      <c r="AD19" s="17">
+      <c r="AD19" s="16">
         <v>500000</v>
       </c>
-      <c r="AE19" s="18">
+      <c r="AE19" s="17">
         <f t="shared" si="1"/>
         <v>388192.63020690257</v>
       </c>
       <c r="AJ19">
         <v>17</v>
       </c>
-      <c r="AK19" s="17">
+      <c r="AK19" s="16">
         <v>500000</v>
       </c>
       <c r="AQ19" s="9">
@@ -4563,15 +4563,15 @@
       <c r="AR19">
         <v>15</v>
       </c>
-      <c r="AS19" s="23">
+      <c r="AS19" s="22">
         <f t="shared" si="9"/>
         <v>152581.1912399038</v>
       </c>
-      <c r="AT19" s="23">
+      <c r="AT19" s="22">
         <f t="shared" si="6"/>
         <v>347418.8087600962</v>
       </c>
-      <c r="AU19" s="21">
+      <c r="AU19" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -4591,20 +4591,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2058165.8329500735</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3008150.8258705838</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20">
+      <c r="G20" s="17"/>
+      <c r="H20" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>202808432.46913677</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="27">
         <v>44165</v>
       </c>
       <c r="M20" s="11">
@@ -4625,7 +4625,7 @@
         <f t="shared" si="12"/>
         <v>2570673.2880461654</v>
       </c>
-      <c r="T20" s="28">
+      <c r="T20" s="27">
         <v>44165</v>
       </c>
       <c r="U20" s="11">
@@ -4649,20 +4649,20 @@
       <c r="AC20">
         <v>18</v>
       </c>
-      <c r="AD20" s="17">
+      <c r="AD20" s="16">
         <v>500000</v>
       </c>
-      <c r="AE20" s="18">
+      <c r="AE20" s="17">
         <f t="shared" si="1"/>
         <v>382455.79330729321</v>
       </c>
       <c r="AJ20">
         <v>18</v>
       </c>
-      <c r="AK20" s="17">
+      <c r="AK20" s="16">
         <v>500000</v>
       </c>
-      <c r="AL20" s="17">
+      <c r="AL20" s="16">
         <v>800000</v>
       </c>
       <c r="AM20" s="6">
@@ -4675,15 +4675,15 @@
       <c r="AR20">
         <v>16</v>
       </c>
-      <c r="AS20" s="23">
+      <c r="AS20" s="22">
         <f t="shared" si="9"/>
         <v>147369.90910850235</v>
       </c>
-      <c r="AT20" s="23">
+      <c r="AT20" s="22">
         <f t="shared" si="6"/>
         <v>352630.09089149768</v>
       </c>
-      <c r="AU20" s="21">
+      <c r="AU20" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -4703,20 +4703,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>2028084.3246913678</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3038232.3341292893</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="20">
+      <c r="G21" s="17"/>
+      <c r="H21" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>199770200.13500747</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="28">
         <v>44196</v>
       </c>
       <c r="M21" s="11">
@@ -4737,7 +4737,7 @@
         <f t="shared" si="12"/>
         <v>2609978.5212870236</v>
       </c>
-      <c r="T21" s="29">
+      <c r="T21" s="28">
         <v>44196</v>
       </c>
       <c r="U21" s="11">
@@ -4761,17 +4761,17 @@
       <c r="AC21">
         <v>19</v>
       </c>
-      <c r="AD21" s="17">
+      <c r="AD21" s="16">
         <v>500000</v>
       </c>
-      <c r="AE21" s="18">
+      <c r="AE21" s="17">
         <f t="shared" si="1"/>
         <v>376803.73724856478</v>
       </c>
       <c r="AJ21">
         <v>19</v>
       </c>
-      <c r="AK21" s="17">
+      <c r="AK21" s="16">
         <v>500000</v>
       </c>
       <c r="AQ21" s="9">
@@ -4780,15 +4780,15 @@
       <c r="AR21">
         <v>17</v>
       </c>
-      <c r="AS21" s="23">
+      <c r="AS21" s="22">
         <f t="shared" si="9"/>
         <v>142080.45774512991</v>
       </c>
-      <c r="AT21" s="23">
+      <c r="AT21" s="22">
         <f t="shared" si="6"/>
         <v>357919.54225487006</v>
       </c>
-      <c r="AU21" s="21">
+      <c r="AU21" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
@@ -4808,20 +4808,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>1997702.0013500748</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3068614.6574705821</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="20">
+      <c r="G22" s="17"/>
+      <c r="H22" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>196701585.47753689</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="27">
         <v>44227</v>
       </c>
       <c r="M22" s="11">
@@ -4842,7 +4842,7 @@
         <f t="shared" si="12"/>
         <v>2649884.7260193978</v>
       </c>
-      <c r="T22" s="28">
+      <c r="T22" s="27">
         <v>44227</v>
       </c>
       <c r="U22" s="11">
@@ -4866,17 +4866,17 @@
       <c r="AC22">
         <v>20</v>
       </c>
-      <c r="AD22" s="17">
+      <c r="AD22" s="16">
         <v>500000</v>
       </c>
-      <c r="AE22" s="18">
+      <c r="AE22" s="17">
         <f t="shared" si="1"/>
         <v>371235.20911188656</v>
       </c>
       <c r="AJ22">
         <v>20</v>
       </c>
-      <c r="AK22" s="17">
+      <c r="AK22" s="16">
         <v>500000</v>
       </c>
       <c r="AQ22" s="9">
@@ -4885,19 +4885,19 @@
       <c r="AR22">
         <v>18</v>
       </c>
-      <c r="AS22" s="23">
+      <c r="AS22" s="22">
         <f t="shared" si="9"/>
         <v>136711.66461130683</v>
       </c>
-      <c r="AT22" s="23">
+      <c r="AT22" s="22">
         <f t="shared" si="6"/>
         <v>363288.33538869314</v>
       </c>
-      <c r="AU22" s="21">
+      <c r="AU22" s="20">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
-      <c r="AV22" s="21">
+      <c r="AV22" s="20">
         <v>800000</v>
       </c>
       <c r="AW22" s="6">
@@ -4916,20 +4916,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>1967015.8547753689</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3099300.8040452879</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="20">
+      <c r="G23" s="17"/>
+      <c r="H23" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>193602284.6734916</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="28">
         <v>44255</v>
       </c>
       <c r="M23" s="11">
@@ -4950,7 +4950,7 @@
         <f t="shared" si="12"/>
         <v>2686453.2281413134</v>
       </c>
-      <c r="T23" s="29">
+      <c r="T23" s="28">
         <v>44255</v>
       </c>
       <c r="U23" s="11">
@@ -4974,17 +4974,17 @@
       <c r="AC23">
         <v>21</v>
       </c>
-      <c r="AD23" s="17">
+      <c r="AD23" s="16">
         <v>500000</v>
       </c>
-      <c r="AE23" s="18">
+      <c r="AE23" s="17">
         <f t="shared" si="1"/>
         <v>365748.97449446958</v>
       </c>
       <c r="AJ23">
         <v>21</v>
       </c>
-      <c r="AK23" s="17">
+      <c r="AK23" s="16">
         <v>500000</v>
       </c>
       <c r="AQ23" s="9">
@@ -4993,15 +4993,15 @@
       <c r="AR23">
         <v>19</v>
       </c>
-      <c r="AS23" s="23">
+      <c r="AS23" s="22">
         <f t="shared" si="9"/>
         <v>119262.33958047643</v>
       </c>
-      <c r="AT23" s="23">
+      <c r="AT23" s="22">
         <f t="shared" si="6"/>
         <v>329693.03500735585</v>
       </c>
-      <c r="AU23" s="24">
+      <c r="AU23" s="23">
         <f>+$AT$1</f>
         <v>448955.37458783225</v>
       </c>
@@ -5021,20 +5021,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>1936022.8467349161</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3130293.8120857412</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="20">
+      <c r="G24" s="17"/>
+      <c r="H24" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>190471990.86140585</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="27">
         <v>44286</v>
       </c>
       <c r="M24" s="11">
@@ -5055,7 +5055,7 @@
         <f t="shared" si="12"/>
         <v>2727528.7203922193</v>
       </c>
-      <c r="T24" s="28">
+      <c r="T24" s="27">
         <v>44286</v>
       </c>
       <c r="U24" s="11">
@@ -5079,17 +5079,17 @@
       <c r="AC24">
         <v>22</v>
       </c>
-      <c r="AD24" s="17">
+      <c r="AD24" s="16">
         <v>500000</v>
       </c>
-      <c r="AE24" s="18">
+      <c r="AE24" s="17">
         <f t="shared" si="1"/>
         <v>360343.81723593071</v>
       </c>
       <c r="AJ24">
         <v>22</v>
       </c>
-      <c r="AK24" s="17">
+      <c r="AK24" s="16">
         <v>500000</v>
       </c>
       <c r="AQ24" s="9">
@@ -5098,15 +5098,15 @@
       <c r="AR24">
         <v>20</v>
       </c>
-      <c r="AS24" s="23">
+      <c r="AS24" s="22">
         <f t="shared" si="9"/>
         <v>114316.9440553661</v>
       </c>
-      <c r="AT24" s="23">
+      <c r="AT24" s="22">
         <f t="shared" si="6"/>
         <v>334638.43053246615</v>
       </c>
-      <c r="AU24" s="24">
+      <c r="AU24" s="23">
         <f t="shared" ref="AU24:AU40" si="17">+$AT$1</f>
         <v>448955.37458783225</v>
       </c>
@@ -5126,20 +5126,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>1904719.9086140585</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3161596.7502065985</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="20">
+      <c r="G25" s="17"/>
+      <c r="H25" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>187310394.11119926</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="28">
         <v>44316</v>
       </c>
       <c r="M25" s="11">
@@ -5160,7 +5160,7 @@
         <f t="shared" si="12"/>
         <v>2467877.075144182</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T25" s="28">
         <v>44316</v>
       </c>
       <c r="U25" s="11">
@@ -5184,17 +5184,17 @@
       <c r="AC25">
         <v>23</v>
       </c>
-      <c r="AD25" s="17">
+      <c r="AD25" s="16">
         <v>500000</v>
       </c>
-      <c r="AE25" s="18">
+      <c r="AE25" s="17">
         <f t="shared" si="1"/>
         <v>355018.53914870019</v>
       </c>
       <c r="AJ25">
         <v>23</v>
       </c>
-      <c r="AK25" s="17">
+      <c r="AK25" s="16">
         <v>500000</v>
       </c>
       <c r="AQ25" s="9">
@@ -5203,15 +5203,15 @@
       <c r="AR25">
         <v>21</v>
       </c>
-      <c r="AS25" s="23">
+      <c r="AS25" s="22">
         <f t="shared" si="9"/>
         <v>109297.3675973791</v>
       </c>
-      <c r="AT25" s="23">
+      <c r="AT25" s="22">
         <f t="shared" si="6"/>
         <v>339658.00699045317</v>
       </c>
-      <c r="AU25" s="24">
+      <c r="AU25" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -5231,20 +5231,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>1873103.9411119926</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3193212.7177086645</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="20">
+      <c r="G26" s="17"/>
+      <c r="H26" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>184117181.39349058</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L26" s="27">
         <v>44347</v>
       </c>
       <c r="M26" s="11">
@@ -5265,7 +5265,7 @@
         <f t="shared" si="12"/>
         <v>2505610.5687387856</v>
       </c>
-      <c r="T26" s="28">
+      <c r="T26" s="27">
         <v>44347</v>
       </c>
       <c r="U26" s="11">
@@ -5289,17 +5289,17 @@
       <c r="AC26">
         <v>24</v>
       </c>
-      <c r="AD26" s="17">
+      <c r="AD26" s="16">
         <v>1500000</v>
       </c>
-      <c r="AE26" s="18">
+      <c r="AE26" s="17">
         <f>+PV(1.5%,AC26,,-AD26)</f>
         <v>1049315.8792572422</v>
       </c>
       <c r="AJ26">
         <v>24</v>
       </c>
-      <c r="AK26" s="17">
+      <c r="AK26" s="16">
         <v>1500000</v>
       </c>
       <c r="AQ26" s="9">
@@ -5308,15 +5308,15 @@
       <c r="AR26">
         <v>22</v>
       </c>
-      <c r="AS26" s="23">
+      <c r="AS26" s="22">
         <f t="shared" si="9"/>
         <v>104202.49749252229</v>
       </c>
-      <c r="AT26" s="23">
+      <c r="AT26" s="22">
         <f t="shared" si="6"/>
         <v>344752.87709530996</v>
       </c>
-      <c r="AU26" s="24">
+      <c r="AU26" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -5336,20 +5336,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>1841171.8139349059</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3225144.8448857511</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="20">
+      <c r="G27" s="17"/>
+      <c r="H27" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>180892036.54860485</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="28">
         <v>44377</v>
       </c>
       <c r="M27" s="11">
@@ -5370,7 +5370,7 @@
         <f t="shared" si="12"/>
         <v>1942676.0864515384</v>
       </c>
-      <c r="T27" s="29">
+      <c r="T27" s="28">
         <v>44377</v>
       </c>
       <c r="U27" s="11">
@@ -5394,17 +5394,17 @@
       <c r="AC27">
         <v>25</v>
       </c>
-      <c r="AD27" s="17">
+      <c r="AD27" s="16">
         <v>500000</v>
       </c>
-      <c r="AE27" s="18">
+      <c r="AE27" s="17">
         <f t="shared" si="1"/>
         <v>344602.91601223062</v>
       </c>
       <c r="AJ27">
         <v>25</v>
       </c>
-      <c r="AK27" s="17">
+      <c r="AK27" s="16">
         <v>500000</v>
       </c>
       <c r="AQ27" s="9">
@@ -5413,15 +5413,15 @@
       <c r="AR27">
         <v>23</v>
       </c>
-      <c r="AS27" s="23">
+      <c r="AS27" s="22">
         <f t="shared" si="9"/>
         <v>99031.204336092647</v>
       </c>
-      <c r="AT27" s="23">
+      <c r="AT27" s="22">
         <f t="shared" si="6"/>
         <v>349924.17025173962</v>
       </c>
-      <c r="AU27" s="24">
+      <c r="AU27" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -5441,20 +5441,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>1808920.3654860484</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3257396.2933346089</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="20">
+      <c r="G28" s="17"/>
+      <c r="H28" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>177634640.25527024</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="27">
         <v>44408</v>
       </c>
       <c r="M28" s="11">
@@ -5475,7 +5475,7 @@
         <f t="shared" si="12"/>
         <v>1972379.3307511865</v>
       </c>
-      <c r="T28" s="28">
+      <c r="T28" s="27">
         <v>44408</v>
       </c>
       <c r="U28" s="11">
@@ -5499,17 +5499,17 @@
       <c r="AC28">
         <v>26</v>
       </c>
-      <c r="AD28" s="17">
+      <c r="AD28" s="16">
         <v>500000</v>
       </c>
-      <c r="AE28" s="18">
+      <c r="AE28" s="17">
         <f t="shared" si="1"/>
         <v>339510.26208101545</v>
       </c>
       <c r="AJ28">
         <v>26</v>
       </c>
-      <c r="AK28" s="17">
+      <c r="AK28" s="16">
         <v>500000</v>
       </c>
       <c r="AQ28" s="9">
@@ -5518,19 +5518,19 @@
       <c r="AR28">
         <v>24</v>
       </c>
-      <c r="AS28" s="23">
+      <c r="AS28" s="22">
         <f t="shared" si="9"/>
         <v>93782.341782316551</v>
       </c>
-      <c r="AT28" s="23">
+      <c r="AT28" s="22">
         <f t="shared" si="6"/>
         <v>355173.03280551569</v>
       </c>
-      <c r="AU28" s="24">
+      <c r="AU28" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
-      <c r="AV28" s="21">
+      <c r="AV28" s="20">
         <v>1000000</v>
       </c>
       <c r="AW28" s="6">
@@ -5553,20 +5553,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>1953981.0428079725</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3112335.6160126845</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="20">
+      <c r="G29" s="17"/>
+      <c r="H29" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>174522304.63925755</v>
       </c>
-      <c r="L29" s="29">
+      <c r="L29" s="28">
         <v>44439</v>
       </c>
       <c r="M29" s="11">
@@ -5587,7 +5587,7 @@
         <f t="shared" si="12"/>
         <v>2002536.7334810938</v>
       </c>
-      <c r="T29" s="29">
+      <c r="T29" s="28">
         <v>44439</v>
       </c>
       <c r="U29" s="11">
@@ -5611,17 +5611,17 @@
       <c r="AC29">
         <v>27</v>
       </c>
-      <c r="AD29" s="17">
+      <c r="AD29" s="16">
         <v>500000</v>
       </c>
-      <c r="AE29" s="18">
+      <c r="AE29" s="17">
         <f t="shared" si="1"/>
         <v>334492.86904533545</v>
       </c>
       <c r="AJ29">
         <v>27</v>
       </c>
-      <c r="AK29" s="17">
+      <c r="AK29" s="16">
         <v>500000</v>
       </c>
       <c r="AQ29" s="9">
@@ -5630,15 +5630,15 @@
       <c r="AR29">
         <v>25</v>
       </c>
-      <c r="AS29" s="23">
+      <c r="AS29" s="22">
         <f t="shared" si="9"/>
         <v>73454.74629023383</v>
       </c>
-      <c r="AT29" s="23">
+      <c r="AT29" s="22">
         <f t="shared" si="6"/>
         <v>375500.62829759845</v>
       </c>
-      <c r="AU29" s="24">
+      <c r="AU29" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -5658,20 +5658,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>1919745.3510318329</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3146571.3077888242</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="20">
+      <c r="G30" s="17"/>
+      <c r="H30" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>171375733.33146873</v>
       </c>
-      <c r="L30" s="28">
+      <c r="L30" s="27">
         <v>44469</v>
       </c>
       <c r="M30" s="11">
@@ -5692,7 +5692,7 @@
         <f t="shared" si="12"/>
         <v>2032160.2758189773</v>
       </c>
-      <c r="T30" s="28">
+      <c r="T30" s="27">
         <v>44469</v>
       </c>
       <c r="U30" s="11">
@@ -5716,17 +5716,17 @@
       <c r="AC30">
         <v>28</v>
       </c>
-      <c r="AD30" s="17">
+      <c r="AD30" s="16">
         <v>500000</v>
       </c>
-      <c r="AE30" s="18">
+      <c r="AE30" s="17">
         <f t="shared" si="1"/>
         <v>329549.62467520742</v>
       </c>
       <c r="AJ30">
         <v>28</v>
       </c>
-      <c r="AK30" s="17">
+      <c r="AK30" s="16">
         <v>500000</v>
       </c>
       <c r="AQ30" s="9">
@@ -5735,15 +5735,15 @@
       <c r="AR30">
         <v>26</v>
       </c>
-      <c r="AS30" s="23">
+      <c r="AS30" s="22">
         <f t="shared" si="9"/>
         <v>67822.236865769853</v>
       </c>
-      <c r="AT30" s="23">
+      <c r="AT30" s="22">
         <f t="shared" si="6"/>
         <v>381133.13772206241</v>
       </c>
-      <c r="AU30" s="24">
+      <c r="AU30" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -5763,20 +5763,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>1885133.0666461559</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3181183.5921745012</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="20">
+      <c r="G31" s="17"/>
+      <c r="H31" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>168194549.73929423</v>
       </c>
-      <c r="L31" s="29">
+      <c r="L31" s="28">
         <v>44500</v>
       </c>
       <c r="M31" s="11">
@@ -5793,11 +5793,11 @@
         <f t="shared" si="11"/>
         <v>31071.444977195002</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="29">
         <f t="shared" si="12"/>
         <v>2063231.7207961723</v>
       </c>
-      <c r="T31" s="29">
+      <c r="T31" s="28">
         <v>44500</v>
       </c>
       <c r="U31" s="11">
@@ -5814,24 +5814,24 @@
         <f t="shared" si="16"/>
         <v>61475.257525454741</v>
       </c>
-      <c r="Y31" s="30">
+      <c r="Y31" s="29">
         <f t="shared" si="15"/>
         <v>2473640.2693464435</v>
       </c>
       <c r="AC31">
         <v>29</v>
       </c>
-      <c r="AD31" s="17">
+      <c r="AD31" s="16">
         <v>500000</v>
       </c>
-      <c r="AE31" s="18">
+      <c r="AE31" s="17">
         <f t="shared" si="1"/>
         <v>324679.43317754427</v>
       </c>
       <c r="AJ31">
         <v>29</v>
       </c>
-      <c r="AK31" s="17">
+      <c r="AK31" s="16">
         <v>500000</v>
       </c>
       <c r="AQ31" s="9">
@@ -5840,15 +5840,15 @@
       <c r="AR31">
         <v>27</v>
       </c>
-      <c r="AS31" s="23">
+      <c r="AS31" s="22">
         <f t="shared" si="9"/>
         <v>62105.239799938921</v>
       </c>
-      <c r="AT31" s="23">
+      <c r="AT31" s="22">
         <f t="shared" si="6"/>
         <v>386850.13478789333</v>
       </c>
-      <c r="AU31" s="24">
+      <c r="AU31" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -5868,20 +5868,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>1850140.0471322364</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3216176.6116884206</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="20">
+      <c r="G32" s="17"/>
+      <c r="H32" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>164978373.1276058</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="27">
         <v>44501</v>
       </c>
       <c r="M32" s="11">
@@ -5899,11 +5899,11 @@
         <f t="shared" si="11"/>
         <v>1010.175682829693</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q32" s="30">
         <f t="shared" si="12"/>
         <v>1238949.2081605331</v>
       </c>
-      <c r="T32" s="28">
+      <c r="T32" s="27">
         <v>44501</v>
       </c>
       <c r="U32" s="11">
@@ -5921,24 +5921,24 @@
         <f t="shared" si="16"/>
         <v>2008.945991196204</v>
       </c>
-      <c r="Y32" s="31">
+      <c r="Y32" s="30">
         <f t="shared" si="15"/>
         <v>1486193.1075990624</v>
       </c>
       <c r="AC32">
         <v>30</v>
       </c>
-      <c r="AD32" s="17">
+      <c r="AD32" s="16">
         <v>500000</v>
       </c>
-      <c r="AE32" s="18">
+      <c r="AE32" s="17">
         <f t="shared" si="1"/>
         <v>319881.21495324565</v>
       </c>
       <c r="AJ32">
         <v>30</v>
       </c>
-      <c r="AK32" s="17">
+      <c r="AK32" s="16">
         <v>500000</v>
       </c>
       <c r="AQ32" s="9">
@@ -5947,15 +5947,15 @@
       <c r="AR32">
         <v>28</v>
       </c>
-      <c r="AS32" s="23">
+      <c r="AS32" s="22">
         <f t="shared" si="9"/>
         <v>56302.487778120521</v>
       </c>
-      <c r="AT32" s="23">
+      <c r="AT32" s="22">
         <f t="shared" si="6"/>
         <v>392652.88680971175</v>
       </c>
-      <c r="AU32" s="24">
+      <c r="AU32" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -5975,33 +5975,33 @@
         <f t="shared" ca="1" si="4"/>
         <v>1814762.1044036637</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3251554.5544169936</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="20">
+      <c r="G33" s="17"/>
+      <c r="H33" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>161726818.57318881</v>
       </c>
       <c r="AC33">
         <v>31</v>
       </c>
-      <c r="AD33" s="17">
+      <c r="AD33" s="16">
         <v>500000</v>
       </c>
-      <c r="AE33" s="18">
+      <c r="AE33" s="17">
         <f t="shared" si="1"/>
         <v>315153.90635787754</v>
       </c>
       <c r="AJ33">
         <v>31</v>
       </c>
-      <c r="AK33" s="17">
+      <c r="AK33" s="16">
         <v>500000</v>
       </c>
       <c r="AQ33" s="9">
@@ -6010,15 +6010,15 @@
       <c r="AR33">
         <v>29</v>
       </c>
-      <c r="AS33" s="23">
+      <c r="AS33" s="22">
         <f t="shared" si="9"/>
         <v>50412.694475974844</v>
       </c>
-      <c r="AT33" s="23">
+      <c r="AT33" s="22">
         <f t="shared" si="6"/>
         <v>398542.68011185742</v>
       </c>
-      <c r="AU33" s="24">
+      <c r="AU33" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -6038,33 +6038,33 @@
         <f t="shared" ca="1" si="4"/>
         <v>1778995.0043050768</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3287321.6545155803</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="20">
+      <c r="G34" s="17"/>
+      <c r="H34" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>158439496.91867322</v>
       </c>
       <c r="AC34">
         <v>32</v>
       </c>
-      <c r="AD34" s="17">
+      <c r="AD34" s="16">
         <v>500000</v>
       </c>
-      <c r="AE34" s="18">
+      <c r="AE34" s="17">
         <f t="shared" si="1"/>
         <v>310496.4594658892</v>
       </c>
       <c r="AJ34">
         <v>32</v>
       </c>
-      <c r="AK34" s="17">
+      <c r="AK34" s="16">
         <v>500000</v>
       </c>
       <c r="AQ34" s="9">
@@ -6073,15 +6073,15 @@
       <c r="AR34">
         <v>30</v>
       </c>
-      <c r="AS34" s="23">
+      <c r="AS34" s="22">
         <f t="shared" si="9"/>
         <v>44434.554274296977</v>
       </c>
-      <c r="AT34" s="23">
+      <c r="AT34" s="22">
         <f t="shared" si="6"/>
         <v>404520.82031353528</v>
       </c>
-      <c r="AU34" s="24">
+      <c r="AU34" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -6101,33 +6101,33 @@
         <f t="shared" ca="1" si="4"/>
         <v>1742834.4661054052</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3323482.1927152518</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="20">
+      <c r="G35" s="17"/>
+      <c r="H35" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>155116014.72595796</v>
       </c>
       <c r="AC35">
         <v>33</v>
       </c>
-      <c r="AD35" s="17">
+      <c r="AD35" s="16">
         <v>500000</v>
       </c>
-      <c r="AE35" s="18">
+      <c r="AE35" s="17">
         <f t="shared" si="1"/>
         <v>305907.84183831455</v>
       </c>
       <c r="AJ35">
         <v>33</v>
       </c>
-      <c r="AK35" s="17">
+      <c r="AK35" s="16">
         <v>500000</v>
       </c>
       <c r="AQ35" s="9">
@@ -6136,15 +6136,15 @@
       <c r="AR35">
         <v>31</v>
       </c>
-      <c r="AS35" s="23">
+      <c r="AS35" s="22">
         <f t="shared" si="9"/>
         <v>38366.741969593953</v>
       </c>
-      <c r="AT35" s="23">
+      <c r="AT35" s="22">
         <f t="shared" si="6"/>
         <v>410588.63261823828</v>
       </c>
-      <c r="AU35" s="24">
+      <c r="AU35" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -6164,33 +6164,33 @@
         <f t="shared" ca="1" si="4"/>
         <v>1706276.1619855375</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3360040.4968351196</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="20">
+      <c r="G36" s="17"/>
+      <c r="H36" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>151755974.22912285</v>
       </c>
       <c r="AC36">
         <v>34</v>
       </c>
-      <c r="AD36" s="17">
+      <c r="AD36" s="16">
         <v>500000</v>
       </c>
-      <c r="AE36" s="18">
+      <c r="AE36" s="17">
         <f t="shared" si="1"/>
         <v>301387.03629390604</v>
       </c>
       <c r="AJ36">
         <v>34</v>
       </c>
-      <c r="AK36" s="17">
+      <c r="AK36" s="16">
         <v>500000</v>
       </c>
       <c r="AQ36" s="9">
@@ -6199,15 +6199,15 @@
       <c r="AR36">
         <v>32</v>
       </c>
-      <c r="AS36" s="23">
+      <c r="AS36" s="22">
         <f t="shared" si="9"/>
         <v>32207.912480320378</v>
       </c>
-      <c r="AT36" s="23">
+      <c r="AT36" s="22">
         <f t="shared" si="6"/>
         <v>416747.46210751188</v>
       </c>
-      <c r="AU36" s="24">
+      <c r="AU36" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -6227,33 +6227,33 @@
         <f t="shared" ca="1" si="4"/>
         <v>1669315.7165203511</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3397000.9423003057</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="20">
+      <c r="G37" s="17"/>
+      <c r="H37" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>148358973.28682253</v>
       </c>
       <c r="AC37">
         <v>35</v>
       </c>
-      <c r="AD37" s="17">
+      <c r="AD37" s="16">
         <v>500000</v>
       </c>
-      <c r="AE37" s="18">
+      <c r="AE37" s="17">
         <f t="shared" si="1"/>
         <v>296933.04068365128</v>
       </c>
       <c r="AJ37">
         <v>35</v>
       </c>
-      <c r="AK37" s="17">
+      <c r="AK37" s="16">
         <v>500000</v>
       </c>
       <c r="AQ37" s="9">
@@ -6262,15 +6262,15 @@
       <c r="AR37">
         <v>33</v>
       </c>
-      <c r="AS37" s="23">
+      <c r="AS37" s="22">
         <f t="shared" si="9"/>
         <v>25956.7005487077</v>
       </c>
-      <c r="AT37" s="23">
+      <c r="AT37" s="22">
         <f t="shared" si="6"/>
         <v>422998.67403912457</v>
       </c>
-      <c r="AU37" s="24">
+      <c r="AU37" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -6290,33 +6290,33 @@
         <f t="shared" ca="1" si="4"/>
         <v>1631948.7061550478</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3434367.9526656093</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="20">
+      <c r="G38" s="17"/>
+      <c r="H38" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>144924605.33415693</v>
       </c>
       <c r="AC38">
         <v>36</v>
       </c>
-      <c r="AD38" s="17">
+      <c r="AD38" s="16">
         <v>500000</v>
       </c>
-      <c r="AE38" s="18">
+      <c r="AE38" s="17">
         <f t="shared" si="1"/>
         <v>292544.86766862194</v>
       </c>
       <c r="AJ38">
         <v>36</v>
       </c>
-      <c r="AK38" s="17">
+      <c r="AK38" s="16">
         <v>500000</v>
       </c>
       <c r="AQ38" s="9">
@@ -6325,15 +6325,15 @@
       <c r="AR38">
         <v>34</v>
       </c>
-      <c r="AS38" s="23">
+      <c r="AS38" s="22">
         <f t="shared" si="9"/>
         <v>19611.720438120832</v>
       </c>
-      <c r="AT38" s="23">
+      <c r="AT38" s="22">
         <f t="shared" si="6"/>
         <v>429343.65414971142</v>
       </c>
-      <c r="AU38" s="24">
+      <c r="AU38" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -6353,35 +6353,35 @@
         <f t="shared" ca="1" si="4"/>
         <v>1594170.658675726</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3472146.000144931</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="20">
+      <c r="G39" s="17"/>
+      <c r="H39" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>141452459.334012</v>
       </c>
-      <c r="AE39" s="17"/>
+      <c r="AE39" s="16"/>
       <c r="AQ39" s="9">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AR39">
         <v>35</v>
       </c>
-      <c r="AS39" s="23">
+      <c r="AS39" s="22">
         <f t="shared" si="9"/>
         <v>13171.565625875161</v>
       </c>
-      <c r="AT39" s="23">
+      <c r="AT39" s="22">
         <f t="shared" si="6"/>
         <v>435783.80896195711</v>
       </c>
-      <c r="AU39" s="24">
+      <c r="AU39" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
@@ -6401,26 +6401,26 @@
         <f t="shared" ca="1" si="4"/>
         <v>1555977.0526741319</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>3510339.6061465251</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="17">
         <f ca="1">+F41*2</f>
         <v>10132633.317641314</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="19">
         <f t="shared" ref="H40:H64" ca="1" si="18">+H39-E40-G40</f>
         <v>127809486.41022417</v>
       </c>
       <c r="AD40" t="s">
         <v>75</v>
       </c>
-      <c r="AE40" s="25">
+      <c r="AE40" s="24">
         <f>+SUM(AE3:AE38)</f>
         <v>15366273.496825553</v>
       </c>
@@ -6431,19 +6431,19 @@
       <c r="AR40">
         <v>36</v>
       </c>
-      <c r="AS40" s="23">
+      <c r="AS40" s="22">
         <f t="shared" si="9"/>
         <v>6634.808491445805</v>
       </c>
-      <c r="AT40" s="23">
+      <c r="AT40" s="22">
         <f t="shared" si="6"/>
         <v>442320.56609638646</v>
       </c>
-      <c r="AU40" s="24">
+      <c r="AU40" s="23">
         <f t="shared" si="17"/>
         <v>448955.37458783225</v>
       </c>
-      <c r="AV40" s="21"/>
+      <c r="AV40" s="20"/>
       <c r="AW40" s="6">
         <f t="shared" si="8"/>
         <v>5.2386894822120667E-10</v>
@@ -6460,24 +6460,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>1022475.8912817934</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4043840.7675388637</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="20">
+      <c r="G41" s="17"/>
+      <c r="H41" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>123765645.64268531</v>
       </c>
-      <c r="AE41" s="18"/>
+      <c r="AE41" s="17"/>
       <c r="AL41" t="s">
         <v>74</v>
       </c>
-      <c r="AM41" s="24">
+      <c r="AM41" s="23">
         <f>PV(1.5%,36,-500000)-AM20</f>
         <v>13218412.886133533</v>
       </c>
@@ -6493,21 +6493,21 @@
         <f t="shared" ca="1" si="4"/>
         <v>990125.16514148249</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4076191.4936791747</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="20">
+      <c r="G42" s="17"/>
+      <c r="H42" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>119689454.14900613</v>
       </c>
-      <c r="AE42" s="18"/>
-      <c r="AM42" s="22">
+      <c r="AE42" s="17"/>
+      <c r="AM42" s="21">
         <f>PMT(1.5%,36,-AM41)</f>
         <v>477877.29101655952</v>
       </c>
@@ -6523,15 +6523,15 @@
         <f t="shared" ca="1" si="4"/>
         <v>957515.63319204899</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4108801.0256286082</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>115580653.12337752</v>
       </c>
@@ -6547,16 +6547,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>924645.22498702013</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4141671.4338336368</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="20">
+      <c r="G44" s="17"/>
+      <c r="H44" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>111438981.68954387</v>
       </c>
@@ -6572,16 +6572,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>891511.85351635097</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4174804.8053043061</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="20">
+      <c r="G45" s="17"/>
+      <c r="H45" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>107264176.88423957</v>
       </c>
@@ -6597,16 +6597,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>858113.41507391655</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4208203.2437467407</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="20">
+      <c r="G46" s="17"/>
+      <c r="H46" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>103055973.64049283</v>
       </c>
@@ -6622,16 +6622,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>824447.78912394261</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4241868.869696714</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G47" s="18"/>
-      <c r="H47" s="20">
+      <c r="G47" s="17"/>
+      <c r="H47" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>98814104.77079612</v>
       </c>
@@ -6647,16 +6647,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>790512.83816636901</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4275803.8206542879</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="20">
+      <c r="G48" s="17"/>
+      <c r="H48" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>94538300.950141832</v>
       </c>
@@ -6672,16 +6672,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>756306.40760113462</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4310010.2512195222</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="20">
+      <c r="G49" s="17"/>
+      <c r="H49" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>90228290.698922306</v>
       </c>
@@ -6697,16 +6697,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>721826.3255913785</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4344490.3332292782</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="20">
+      <c r="G50" s="17"/>
+      <c r="H50" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>85883800.365693033</v>
       </c>
@@ -6722,16 +6722,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>687070.4029255443</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4379246.2558951126</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="20">
+      <c r="G51" s="17"/>
+      <c r="H51" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>81504554.109797925</v>
       </c>
@@ -6747,19 +6747,19 @@
         <f t="shared" ca="1" si="4"/>
         <v>652036.43287838344</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4414280.2259422736</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="17">
         <f ca="1">+F52*2</f>
         <v>10132633.317641314</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>66957640.566214338</v>
       </c>
@@ -6775,16 +6775,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>535661.1245297147</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4530655.5342909424</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G53" s="18"/>
-      <c r="H53" s="20">
+      <c r="G53" s="17"/>
+      <c r="H53" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>62426985.031923398</v>
       </c>
@@ -6800,16 +6800,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>499415.88025538722</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4566900.7785652699</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G54" s="18"/>
-      <c r="H54" s="20">
+      <c r="G54" s="17"/>
+      <c r="H54" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>57860084.253358126</v>
       </c>
@@ -6825,16 +6825,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>462880.67402686499</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4603435.9847937925</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G55" s="18"/>
-      <c r="H55" s="20">
+      <c r="G55" s="17"/>
+      <c r="H55" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>53256648.268564336</v>
       </c>
@@ -6850,16 +6850,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>426053.18614851468</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4640263.4726721421</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="20">
+      <c r="G56" s="17"/>
+      <c r="H56" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>48616384.795892194</v>
       </c>
@@ -6875,16 +6875,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>388931.07836713758</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4677385.5804535197</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="20">
+      <c r="G57" s="17"/>
+      <c r="H57" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>43938999.215438671</v>
       </c>
@@ -6900,16 +6900,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>351511.99372350937</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4714804.6650971472</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G58" s="18"/>
-      <c r="H58" s="20">
+      <c r="G58" s="17"/>
+      <c r="H58" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>39224194.550341524</v>
       </c>
@@ -6925,16 +6925,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>313793.55640273221</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4752523.1024179244</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="20">
+      <c r="G59" s="17"/>
+      <c r="H59" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>34471671.447923601</v>
       </c>
@@ -6950,16 +6950,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>275773.37158338883</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4790543.2872372679</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G60" s="18"/>
-      <c r="H60" s="20">
+      <c r="G60" s="17"/>
+      <c r="H60" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>29681128.160686333</v>
       </c>
@@ -6975,16 +6975,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>237449.02528549067</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4828867.6335351663</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G61" s="18"/>
-      <c r="H61" s="20">
+      <c r="G61" s="17"/>
+      <c r="H61" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>24852260.527151167</v>
       </c>
@@ -7000,16 +7000,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>198818.08421720934</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4867498.5746034477</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G62" s="18"/>
-      <c r="H62" s="20">
+      <c r="G62" s="17"/>
+      <c r="H62" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>19984761.952547722</v>
       </c>
@@ -7025,16 +7025,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>159878.09562038176</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4906438.5632002754</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G63" s="18"/>
-      <c r="H63" s="20">
+      <c r="G63" s="17"/>
+      <c r="H63" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>15078323.389347445</v>
       </c>
@@ -7050,19 +7050,19 @@
         <f t="shared" ca="1" si="4"/>
         <v>120626.58711477957</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4945690.0717058778</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="17">
         <f t="shared" ca="1" si="5"/>
         <v>5066316.6588206571</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="17">
         <f ca="1">+F64*2</f>
         <v>10132633.317641314</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="19">
         <f t="shared" ca="1" si="18"/>
         <v>2.5331974029541016E-7</v>
       </c>
@@ -7078,10 +7078,10 @@
   <dimension ref="A1:W130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
@@ -7132,14 +7132,14 @@
       <c r="H2" s="2">
         <v>300000000</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16" t="s">
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="16"/>
+      <c r="S2" s="31"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -7420,11 +7420,11 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="G12">
         <v>2</v>
       </c>
@@ -7458,11 +7458,11 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="G13">
         <v>3</v>
       </c>
